--- a/BOM-V1.1.xlsx
+++ b/BOM-V1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwver\Documents\Hobby\Frequency Reference 10MHz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0B738A-0334-41A6-89A6-7AF58C5DCD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AA9C50-6F9A-4805-BE5E-C67C85AB55BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="1845" windowWidth="20325" windowHeight="13980" xr2:uid="{A0BC6D46-8E86-4CD5-85C8-F21C7F10E30B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
   <si>
     <t>null</t>
   </si>
@@ -234,9 +234,6 @@
     <t>RV2</t>
   </si>
   <si>
-    <t>5K</t>
-  </si>
-  <si>
     <t>TP1</t>
   </si>
   <si>
@@ -289,6 +286,12 @@
   </si>
   <si>
     <t>July 20245</t>
+  </si>
+  <si>
+    <t>3059P-1-103LF</t>
+  </si>
+  <si>
+    <t>3059P-1-502LF</t>
   </si>
 </sst>
 </file>
@@ -650,7 +653,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,10 +1136,10 @@
         <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1150,10 +1153,10 @@
         <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1164,13 +1167,13 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" t="s">
         <v>70</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>71</v>
-      </c>
-      <c r="F30" t="s">
-        <v>72</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1181,13 +1184,13 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" t="s">
         <v>73</v>
       </c>
-      <c r="E31" t="s">
-        <v>74</v>
-      </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1198,13 +1201,13 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" t="s">
         <v>75</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>76</v>
-      </c>
-      <c r="F32" t="s">
-        <v>77</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1215,13 +1218,13 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" t="s">
         <v>78</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>79</v>
-      </c>
-      <c r="F33" t="s">
-        <v>80</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1232,13 +1235,13 @@
         <v>33</v>
       </c>
       <c r="D34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" t="s">
         <v>81</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>82</v>
-      </c>
-      <c r="F34" t="s">
-        <v>83</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1246,15 +1249,15 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
